--- a/Take Home/Tables/1_MSPE All Criteria_a110.95_T50.xlsx
+++ b/Take Home/Tables/1_MSPE All Criteria_a110.95_T50.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.3083</v>
+        <v>2.3214</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4225</v>
+        <v>2.5715</v>
       </c>
       <c r="D2" t="n">
-        <v>2.9328</v>
+        <v>2.7403</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.3655</v>
+        <v>2.3751</v>
       </c>
       <c r="C3" t="n">
-        <v>2.4924</v>
+        <v>2.6499</v>
       </c>
       <c r="D3" t="n">
-        <v>2.985</v>
+        <v>2.7734</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.1721</v>
+        <v>2.2195</v>
       </c>
       <c r="C4" t="n">
-        <v>2.2771</v>
+        <v>2.4828</v>
       </c>
       <c r="D4" t="n">
-        <v>2.7501</v>
+        <v>2.6917</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.194</v>
+        <v>2.2561</v>
       </c>
       <c r="C5" t="n">
-        <v>2.3148</v>
+        <v>2.5062</v>
       </c>
       <c r="D5" t="n">
-        <v>2.7706</v>
+        <v>2.7074</v>
       </c>
     </row>
   </sheetData>
